--- a/data/output/Cheyette/swaption1Y1Y/Swaption_1Y1Y2015-06-25 10-14.xlsx
+++ b/data/output/Cheyette/swaption1Y1Y/Swaption_1Y1Y2015-06-25 10-14.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Swaption_1Y1Y2015-06-25 10-14" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -111,7 +111,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -600,8 +600,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -650,6 +650,311 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="fr-FR"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Swaption_1Y1Y2015-06-25 10-14'!$C$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>  prix MC </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Swaption_1Y1Y2015-06-25 10-14'!$B$46:$B$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Swaption_1Y1Y2015-06-25 10-14'!$C$46:$C$48</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.7449200000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.78549E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.78594E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Swaption_1Y1Y2015-06-25 10-14'!$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>prix approximation </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Swaption_1Y1Y2015-06-25 10-14'!$B$46:$B$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Swaption_1Y1Y2015-06-25 10-14'!$A$46:$A$48</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.7345399999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7345399999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7345399999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Swaption_1Y1Y2015-06-25 10-14'!$D$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> IC inf </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Swaption_1Y1Y2015-06-25 10-14'!$B$46:$B$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Swaption_1Y1Y2015-06-25 10-14'!$D$46:$D$48</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.69356E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.75939E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.76951E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Swaption_1Y1Y2015-06-25 10-14'!$E$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> IC sup </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Swaption_1Y1Y2015-06-25 10-14'!$B$46:$B$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Swaption_1Y1Y2015-06-25 10-14'!$E$46:$E$48</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.7962799999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8116E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.80236E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="129411712"/>
+        <c:axId val="129413504"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="129411712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="129413504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="129413504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.000%" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="129411712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -940,7 +1245,7 @@
   <dimension ref="A4:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1248,5 +1553,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>